--- a/automation_fa/issue_by_sign.xlsx
+++ b/automation_fa/issue_by_sign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\REL_Automation\automation_fa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82BF3B3-A3EE-4310-9C54-BDDB0EC8D37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89073DFD-5A9D-4565-ADEB-99D51087B4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:25">
